--- a/www.eia.gov/electricity/monthly/xls/table_a_7_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_7_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.7.B. Relative Standard Error for Revenue from Sales of Electricity to Ultimate Customers</t>
   </si>
   <si>
-    <t>by End-Use Sector, Census Division, and State, Year-to-Date through October 2016</t>
+    <t>by End-Use Sector, Census Division, and State, Year-to-Date through November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1197,7 +1197,7 @@
         <v>0.18</v>
       </c>
       <c r="C4" s="6">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C12" s="8">
         <v>0.27</v>
@@ -1394,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C14" s="8">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="6">
         <v>0.46</v>
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="6">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="C29" s="6">
         <v>0.36</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="8">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C34" s="8">
         <v>0.37</v>
@@ -1874,13 +1874,13 @@
         <v>42</v>
       </c>
       <c r="B38" s="8">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="E38" s="8">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="6">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="6">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="8">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="C48" s="8">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="6">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -2114,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="8">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="8">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
@@ -2274,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="6">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
